--- a/hystrix_dashboard.xlsx
+++ b/hystrix_dashboard.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>pom</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,9 @@
   <si>
     <t>Median</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://projects.spring.io/spring-cloud/spring-cloud.html</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L65:M75"/>
+  <dimension ref="C65:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,6 +688,11 @@
       </c>
       <c r="M75" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
